--- a/Graf_K_sandalias_computador.xlsx
+++ b/Graf_K_sandalias_computador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sijac\Documents\Fatec\INFORMATICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{05CF51DC-8ECB-4A98-B30F-F68672CF5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75FCBBD6-B86D-4AB3-92B7-4479745665B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D1B7D-41DC-46B2-B1A7-8729DAA47EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computador_peças" sheetId="3" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -80,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +229,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -253,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -271,19 +260,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,7 +347,2379 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Computador_peças!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fabricar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Computador_peças!$A$13:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Computador_peças!$B$13:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-368F-447C-9B46-B664B482F98B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Computador_peças!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comprar de A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Computador_peças!$A$13:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Computador_peças!$C$13:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-368F-447C-9B46-B664B482F98B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Computador_peças!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comprar de B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Computador_peças!$A$13:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Computador_peças!$D$13:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-368F-447C-9B46-B664B482F98B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1559351807"/>
+        <c:axId val="2078297663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1559351807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2078297663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2078297663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559351807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sandálias!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo Total de Produção</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sandálias!$A$14:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sandálias!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52C1-433B-9354-5E1BF35EADFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sandálias!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lucro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sandálias!$A$14:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sandálias!$C$14:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-18000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52C1-433B-9354-5E1BF35EADFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="101221103"/>
+        <c:axId val="1464606287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101221103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1464606287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1464606287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101221103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2322B0-2BD8-4A16-9FD4-442D383EB5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -413,11 +2774,47 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE109275-0963-4B53-8961-9CE13CEB7173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,13 +3110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -731,7 +3128,7 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -752,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -771,7 +3168,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -790,7 +3187,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -809,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -819,7 +3216,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -829,7 +3226,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -839,7 +3236,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -849,7 +3246,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -859,7 +3256,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -869,7 +3266,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="12" spans="1:11" ht="28.9">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
@@ -883,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -900,12 +3297,12 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>300</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" ref="B14:B26" si="0">($K$2*A14)+$J$2</f>
+        <f t="shared" ref="B14:B25" si="0">($K$2*A14)+$J$2</f>
         <v>2267</v>
       </c>
       <c r="C14" s="7">
@@ -917,7 +3314,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>600</v>
       </c>
@@ -934,7 +3331,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>900</v>
       </c>
@@ -951,7 +3348,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1200</v>
       </c>
@@ -968,7 +3365,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1500</v>
       </c>
@@ -985,7 +3382,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1800</v>
       </c>
@@ -1002,7 +3399,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2100</v>
       </c>
@@ -1019,7 +3416,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2400</v>
       </c>
@@ -1036,7 +3433,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2700</v>
       </c>
@@ -1053,7 +3450,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3000</v>
       </c>
@@ -1070,7 +3467,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3300</v>
       </c>
@@ -1087,7 +3484,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3600</v>
       </c>
@@ -1102,23 +3499,6 @@
       <c r="D25" s="7">
         <f t="shared" si="2"/>
         <v>5350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B26" s="7">
-        <f t="shared" si="0"/>
-        <v>10900</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" ref="C26" si="3">($K$3*A26)+$J$3</f>
-        <v>12000</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" ref="D26" si="4">($K$4*A26)+$J$4</f>
-        <v>11750</v>
       </c>
     </row>
   </sheetData>
@@ -1126,6 +3506,7 @@
     <mergeCell ref="A1:H10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,10 +3515,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -1146,7 +3527,7 @@
     <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="10">
         <v>18000</v>
       </c>
@@ -1162,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.9">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -1194,7 +3575,7 @@
         <v>-18000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
@@ -1207,7 +3588,7 @@
         <v>-12000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>4000</v>
       </c>
@@ -1220,7 +3601,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6000</v>
       </c>
@@ -1233,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>8000</v>
       </c>
@@ -1246,7 +3627,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>10000</v>
       </c>
@@ -1259,7 +3640,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>12000</v>
       </c>
@@ -1272,7 +3653,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>14000</v>
       </c>
@@ -1285,7 +3666,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16000</v>
       </c>
@@ -1298,7 +3679,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18000</v>
       </c>
@@ -1311,7 +3692,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20000</v>
       </c>
@@ -1324,7 +3705,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22000</v>
       </c>
@@ -1354,12 +3735,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EC31EF8D21B89E489E02760682E7ACE0" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bda68d90bd11809017d6ca27ed5750dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68fcbebd-d32a-4506-993e-5507abf60213" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ed144fda35c3ed96971811bbf81d839" ns2:_="">
     <xsd:import namespace="68fcbebd-d32a-4506-993e-5507abf60213"/>
@@ -1497,14 +3872,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5183C69-17FA-40CC-A552-1C25D8D60A73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5183C69-17FA-40CC-A552-1C25D8D60A73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8D7613-7D11-4EAF-96AB-D339F01E371D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FA469F-3E2F-4FF7-8F55-8AD81A09973D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68fcbebd-d32a-4506-993e-5507abf60213"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FA469F-3E2F-4FF7-8F55-8AD81A09973D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8D7613-7D11-4EAF-96AB-D339F01E371D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Graf_K_sandalias_computador.xlsx
+++ b/Graf_K_sandalias_computador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23D1B7D-41DC-46B2-B1A7-8729DAA47EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02131F78-CB8B-4D3A-91F0-6A539825167B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +300,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -362,6 +372,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Peças Computador</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1047,6 +1082,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sandálias</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2688,8 +2748,8 @@
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -2777,14 +2837,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3113,7 +3173,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,7 +3348,7 @@
         <f>($K$2*A13)+$J$2</f>
         <v>2000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="25">
         <f>($K$3*A13)+$J$3</f>
         <v>1500</v>
       </c>
@@ -3305,7 +3365,7 @@
         <f t="shared" ref="B14:B25" si="0">($K$2*A14)+$J$2</f>
         <v>2267</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="25">
         <f t="shared" ref="C14:C25" si="1">($K$3*A14)+$J$3</f>
         <v>1815</v>
       </c>
@@ -3322,7 +3382,7 @@
         <f t="shared" si="0"/>
         <v>2534</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="25">
         <f t="shared" si="1"/>
         <v>2130</v>
       </c>
@@ -3339,7 +3399,7 @@
         <f t="shared" si="0"/>
         <v>2801</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="25">
         <f t="shared" si="1"/>
         <v>2445</v>
       </c>
@@ -3356,7 +3416,7 @@
         <f t="shared" si="0"/>
         <v>3068</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="25">
         <f t="shared" si="1"/>
         <v>2760</v>
       </c>
@@ -3373,7 +3433,7 @@
         <f t="shared" si="0"/>
         <v>3335</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="25">
         <f t="shared" si="1"/>
         <v>3075</v>
       </c>
@@ -3390,7 +3450,7 @@
         <f t="shared" si="0"/>
         <v>3602</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="25">
         <f t="shared" si="1"/>
         <v>3390</v>
       </c>
@@ -3407,7 +3467,7 @@
         <f t="shared" si="0"/>
         <v>3869</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="25">
         <f t="shared" si="1"/>
         <v>3705</v>
       </c>
@@ -3424,7 +3484,7 @@
         <f t="shared" si="0"/>
         <v>4136</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="25">
         <f t="shared" si="1"/>
         <v>4020</v>
       </c>
@@ -3441,7 +3501,7 @@
         <f t="shared" si="0"/>
         <v>4403</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="25">
         <f t="shared" si="1"/>
         <v>4335</v>
       </c>
@@ -3458,7 +3518,7 @@
         <f t="shared" si="0"/>
         <v>4670</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="25">
         <f t="shared" si="1"/>
         <v>4650</v>
       </c>
@@ -3468,10 +3528,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="24">
         <v>3300</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="25">
         <f t="shared" si="0"/>
         <v>4937</v>
       </c>
@@ -3488,7 +3548,7 @@
       <c r="A25" s="3">
         <v>3600</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="25">
         <f t="shared" si="0"/>
         <v>5204</v>
       </c>
@@ -3515,7 +3575,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,14 +3662,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="24">
         <v>6000</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="26">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3726,15 +3786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EC31EF8D21B89E489E02760682E7ACE0" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bda68d90bd11809017d6ca27ed5750dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68fcbebd-d32a-4506-993e-5507abf60213" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ed144fda35c3ed96971811bbf81d839" ns2:_="">
     <xsd:import namespace="68fcbebd-d32a-4506-993e-5507abf60213"/>
@@ -3872,6 +3923,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3879,14 +3939,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5183C69-17FA-40CC-A552-1C25D8D60A73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94FA469F-3E2F-4FF7-8F55-8AD81A09973D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3904,6 +3956,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5183C69-17FA-40CC-A552-1C25D8D60A73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8D7613-7D11-4EAF-96AB-D339F01E371D}">
   <ds:schemaRefs>
